--- a/biology/Botanique/Artemisia_eriantha/Artemisia_eriantha.xlsx
+++ b/biology/Botanique/Artemisia_eriantha/Artemisia_eriantha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Artemisia eriantha, le génépi laineux, est une espèce de plante à fleurs de la famille des Asteraceae. C'est une plante herbacée vivace rustique.
 Autres noms vernaculaires : génépi mâle, génépi bourru, armoise laineuse, armoise à fleurs laineuses et même génépi blanc (risque de confusion avec Artemisia umbelliformis).
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante haute de 5 à 20 cm entièrement blanche car couverte d'une pilosité soyeuse ; feuilles de la base à long pétiole, disposées en rosette, à limbe très divisé, feuilles caulinaires sessiles trilobées ou entières ; inflorescence en grappe de 20 à 30 capitules aux fleurs tubulaires, jaunes, velues. Floraison de juillet à septembre.
 </t>
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Orophyte sud-européen, assez rare en France (Alpes, Pyrénées), espèce protégée.
 </t>
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Rochers, éboulis, moraines sur substrat siliceux, de 1 900 à 3 200 mètres.  
 </t>
